--- a/data/medications/medications_20250831.xlsx
+++ b/data/medications/medications_20250831.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyler/GitHub Repositories/2025/Healthcare-Assistant/data/medications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DCF94D4B-24C6-A84E-A43F-B852CBAC48FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3ED562-E9C7-E54C-80D0-3D1806FDADF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="680" windowWidth="29700" windowHeight="18520" xr2:uid="{0F232510-BFB9-DE49-AC59-F45F1524C25D}"/>
   </bookViews>
   <sheets>
     <sheet name="medications" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="50">
   <si>
     <t>medication</t>
   </si>
@@ -235,47 +235,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
           <fgColor auto="1"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -609,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B7C50F-928A-744A-89B0-12B84743A5F1}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I52"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,1467 +629,1344 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2">
         <v>44927</v>
       </c>
-      <c r="G2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="b">
-        <f>IF(AND(NOT(ISBLANK(F2)),NOT(G2),ISBLANK(H2)), TRUE, FALSE)</f>
+      <c r="G2" s="2">
+        <v>45839</v>
+      </c>
+      <c r="I2" t="b">
+        <f>IF(AND(NOT(ISBLANK(F2)),ISBLANK(G2),ISBLANK(H2)), TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2">
         <v>44927</v>
       </c>
-      <c r="G3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
         <v>45444</v>
       </c>
-      <c r="I3" s="2" t="b">
-        <f t="shared" ref="I3:I52" si="0">IF(AND(NOT(ISBLANK(F3)),NOT(G3),ISBLANK(H3)), TRUE, FALSE)</f>
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I51" si="0">IF(AND(NOT(ISBLANK(F3)),ISBLANK(G3),ISBLANK(H3)), TRUE, FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2">
         <v>43101</v>
       </c>
-      <c r="G4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
         <v>45292</v>
       </c>
-      <c r="I4" s="2" t="b">
+      <c r="I4" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2">
         <v>45108</v>
       </c>
-      <c r="G5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="b">
+      <c r="G5" s="2">
+        <v>45200</v>
+      </c>
+      <c r="I5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2">
         <v>45108</v>
       </c>
-      <c r="G6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
         <v>45199</v>
       </c>
-      <c r="I6" s="2" t="b">
-        <f>IF(AND(NOT(ISBLANK(F6)),NOT(G6),ISBLANK(H6)), TRUE, FALSE)</f>
+      <c r="I6" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>140</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2">
         <v>45108</v>
       </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="b">
+      <c r="G7" s="2"/>
+      <c r="I7" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>500</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2">
         <v>45108</v>
       </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
         <v>45322</v>
       </c>
-      <c r="I8" s="2" t="b">
-        <f>IF(AND(NOT(ISBLANK(F8)),NOT(G8),ISBLANK(H8)), TRUE, FALSE)</f>
+      <c r="I8" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>500</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2">
         <v>43101</v>
       </c>
-      <c r="G9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="b">
+      <c r="G9" s="2"/>
+      <c r="I9" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>125</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
         <v>43101</v>
       </c>
-      <c r="G10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="b">
+      <c r="G10" s="2"/>
+      <c r="I10" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2">
         <v>43101</v>
       </c>
-      <c r="G11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="b">
+      <c r="G11" s="2"/>
+      <c r="I11" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2">
         <v>43101</v>
       </c>
-      <c r="G12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="b">
+      <c r="G12" s="2">
+        <v>45748</v>
+      </c>
+      <c r="I12" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>200</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2">
         <v>43831</v>
       </c>
-      <c r="G13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
         <v>45628</v>
       </c>
-      <c r="I13" s="2" t="b">
+      <c r="I13" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>300</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2">
         <v>45108</v>
       </c>
-      <c r="G14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
         <v>45443</v>
       </c>
-      <c r="I14" s="2" t="b">
+      <c r="I14" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>500</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2">
         <v>44835</v>
       </c>
-      <c r="G15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="b">
+      <c r="G15" s="2"/>
+      <c r="I15" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>500</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2">
         <v>45108</v>
       </c>
-      <c r="G16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G16" s="2">
+        <v>45231</v>
+      </c>
+      <c r="H16" s="2">
         <v>45565</v>
       </c>
-      <c r="I16" s="2" t="b">
+      <c r="I16" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>22</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2">
         <v>45200</v>
       </c>
-      <c r="G17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="b">
+      <c r="G17" s="2">
+        <v>45231</v>
+      </c>
+      <c r="I17" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>25</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2">
         <v>45200</v>
       </c>
-      <c r="G18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="b">
+      <c r="G18" s="2"/>
+      <c r="I18" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>26</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="2">
         <v>45231</v>
       </c>
-      <c r="G19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="b">
+      <c r="G19" s="2">
+        <v>45261</v>
+      </c>
+      <c r="I19" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>28</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="2">
         <v>45261</v>
       </c>
-      <c r="G20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="b">
+      <c r="G20" s="2">
+        <v>45292</v>
+      </c>
+      <c r="I20" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>30</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="2">
         <v>45292</v>
       </c>
-      <c r="G21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="b">
+      <c r="G21" s="2">
+        <v>45323</v>
+      </c>
+      <c r="I21" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>32</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="2">
         <v>45323</v>
       </c>
-      <c r="G22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="b">
+      <c r="G22" s="2">
+        <v>45366</v>
+      </c>
+      <c r="I22" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>100</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="2">
         <v>45352</v>
       </c>
-      <c r="G23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="b">
+      <c r="G23" s="2"/>
+      <c r="I23" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>60</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="2">
         <v>45413</v>
       </c>
-      <c r="G24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="b">
+      <c r="G24" s="2"/>
+      <c r="I24" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>6</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="2">
         <v>45413</v>
       </c>
-      <c r="G25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="b">
+      <c r="G25" s="2"/>
+      <c r="I25" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>200</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>45413</v>
       </c>
-      <c r="G26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="b">
+      <c r="G26" s="2">
+        <v>45802</v>
+      </c>
+      <c r="I26" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="2">
         <v>45413</v>
       </c>
-      <c r="G27" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
         <v>45869</v>
       </c>
-      <c r="I27" s="2" t="b">
+      <c r="I27" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>30</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="2">
         <v>45366</v>
       </c>
-      <c r="G28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2" t="b">
+      <c r="G28" s="2">
+        <v>45397</v>
+      </c>
+      <c r="I28" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="2">
         <v>45397</v>
       </c>
-      <c r="G29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2" t="b">
+      <c r="G29" s="2">
+        <v>45413</v>
+      </c>
+      <c r="I29" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>25</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="2">
         <v>45413</v>
       </c>
-      <c r="G30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="b">
+      <c r="G30" s="2">
+        <v>45519</v>
+      </c>
+      <c r="I30" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>240</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="2">
         <v>45444</v>
       </c>
-      <c r="G31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2" t="b">
+      <c r="G31" s="2"/>
+      <c r="I31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>22</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="2">
         <v>45519</v>
       </c>
-      <c r="G32" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2" t="b">
+      <c r="G32" s="4">
+        <v>45586</v>
+      </c>
+      <c r="I32" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>28</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="4">
         <v>45586</v>
       </c>
-      <c r="G33" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2" t="b">
+      <c r="G33" s="4">
+        <v>45762</v>
+      </c>
+      <c r="I33" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>200</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="2">
         <v>45444</v>
       </c>
-      <c r="G34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
         <v>45869</v>
       </c>
-      <c r="I34" s="2" t="b">
+      <c r="I34" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>500</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="2">
         <v>45589</v>
       </c>
-      <c r="G35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2">
         <v>45688</v>
       </c>
-      <c r="I35" s="2" t="b">
+      <c r="I35" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>500</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="2">
         <v>45689</v>
       </c>
-      <c r="G36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2">
         <v>45786</v>
       </c>
-      <c r="I36" s="2" t="b">
+      <c r="I36" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>25</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="2">
         <v>45628</v>
       </c>
-      <c r="G37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2" t="b">
+      <c r="G37" s="2">
+        <v>45689</v>
+      </c>
+      <c r="I37" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>50</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="2">
         <v>45712</v>
       </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2" t="b">
+      <c r="G38" s="2">
+        <v>45778</v>
+      </c>
+      <c r="I38" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>50</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="2">
         <v>45689</v>
       </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2" t="b">
+      <c r="G39" s="2">
+        <v>45717</v>
+      </c>
+      <c r="I39" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>75</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="2">
         <v>45717</v>
       </c>
-      <c r="G40" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2" t="b">
+      <c r="G40" s="2"/>
+      <c r="I40" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>5</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="2">
         <v>45748</v>
       </c>
-      <c r="G41" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2" t="b">
+      <c r="G41" s="2"/>
+      <c r="I41" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>274</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="2">
         <v>45748</v>
       </c>
-      <c r="G42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2">
         <v>45869</v>
       </c>
-      <c r="I42" s="2" t="b">
+      <c r="I42" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="2">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="2">
         <v>45765</v>
       </c>
-      <c r="G43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2">
         <v>45875</v>
       </c>
-      <c r="I43" s="2" t="b">
+      <c r="I43" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>200</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="2">
         <v>45802</v>
       </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2" t="b">
+      <c r="G44" s="2">
+        <v>45844</v>
+      </c>
+      <c r="I44" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>300</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="2">
         <v>45844</v>
       </c>
-      <c r="G45" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2">
         <v>45869</v>
       </c>
-      <c r="I45" s="2" t="b">
+      <c r="I45" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>26</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="C46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="4">
         <v>45762</v>
       </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2" t="b">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2">
+        <v>45814</v>
+      </c>
+      <c r="I46" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
         <v>25</v>
       </c>
-      <c r="B47" s="4">
-        <v>26</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="4">
-        <v>3</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="5">
-        <v>45762</v>
-      </c>
-      <c r="G47" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>45814</v>
-      </c>
-      <c r="I47" s="2" t="b">
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45809</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2">
+        <v>45885</v>
+      </c>
+      <c r="I47" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="2">
-        <v>25</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="3">
-        <v>45809</v>
-      </c>
-      <c r="G48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>45885</v>
-      </c>
-      <c r="I48" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="2">
+        <v>45778</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="I48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="2">
-        <v>100</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" s="3">
-        <v>45778</v>
-      </c>
-      <c r="G49" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2" t="b">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>250</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45846</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="I49" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2">
-        <v>250</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="3">
-        <v>45846</v>
-      </c>
-      <c r="G50" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2" t="b">
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45839</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="I50" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="2">
-        <v>2</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="3">
-        <v>45839</v>
-      </c>
-      <c r="G51" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A51" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B51">
         <v>10</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C51" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="2">
         <v>45748</v>
       </c>
-      <c r="G52" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2" t="b">
+      <c r="G51" s="2"/>
+      <c r="I51" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:I100">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A2:I99">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$I2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
